--- a/ResultsPrediction/Input_Scommessa_9.xlsx
+++ b/ResultsPrediction/Input_Scommessa_9.xlsx
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.487193565625374</v>
+        <v>6.497716998008328</v>
       </c>
       <c r="C2">
         <v>5.927351598109846</v>
@@ -515,7 +515,7 @@
         <v>5.261673835307412</v>
       </c>
       <c r="C3">
-        <v>6.386845869203921</v>
+        <v>6.439347483331145</v>
       </c>
       <c r="D3">
         <v>7.25</v>
@@ -538,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.545166585600342</v>
+        <v>5.319780196479399</v>
       </c>
       <c r="C4">
-        <v>6.225884138690264</v>
+        <v>6.228750732530961</v>
       </c>
       <c r="D4">
         <v>1.35</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.929140946883052</v>
+        <v>5.882568995835982</v>
       </c>
       <c r="C5">
         <v>6.076692985916361</v>
@@ -590,10 +590,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.187844487749683</v>
+        <v>6.200722706282824</v>
       </c>
       <c r="C6">
-        <v>5.635651683378489</v>
+        <v>5.596737378468929</v>
       </c>
       <c r="D6">
         <v>1.65</v>
@@ -616,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.633490224777848</v>
+        <v>6.6254583931597</v>
       </c>
       <c r="C7">
-        <v>5.81276954752241</v>
+        <v>5.773446665649252</v>
       </c>
       <c r="D7">
         <v>1.67</v>
@@ -642,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.310575185190381</v>
+        <v>5.422963851922177</v>
       </c>
       <c r="C8">
         <v>6.224182435744607</v>
@@ -668,10 +668,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.296085328664043</v>
+        <v>5.289733745644285</v>
       </c>
       <c r="C9">
-        <v>6.481814126317442</v>
+        <v>6.421928270356204</v>
       </c>
       <c r="D9">
         <v>2.15</v>
@@ -697,7 +697,7 @@
         <v>5.943065192561195</v>
       </c>
       <c r="C10">
-        <v>5.85766176235335</v>
+        <v>5.874432775767764</v>
       </c>
       <c r="D10">
         <v>2.55</v>
@@ -720,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.260735679253608</v>
+        <v>5.482344688936113</v>
       </c>
       <c r="C11">
-        <v>5.941834564172828</v>
+        <v>4.955429559551515</v>
       </c>
       <c r="D11">
         <v>2.65</v>
